--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_workspace\SeleniumTestJava\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C573CFA-DD7F-418A-8867-B0F96057A772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4104E6-D26D-40E9-96E3-E0CEE07F47E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A1E7887-2BE9-4B48-96EE-7CA468945BB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -33,13 +42,19 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>Shruti</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Sakshi</t>
-  </si>
-  <si>
-    <t>Rahul</t>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Demo1</t>
   </si>
 </sst>
 </file>
@@ -111,7 +126,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -123,7 +138,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -170,6 +185,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -205,6 +237,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E6ABA0-6FCF-47FA-A668-0CB357B96474}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,23 +427,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
